--- a/Src/table_input.xlsx
+++ b/Src/table_input.xlsx
@@ -280,9 +280,6 @@
     <t>Кемеровская область, г Новокузнецк, ул Транспортная, д 2, к 16, пом 1</t>
   </si>
   <si>
-    <t>Кемеровская область, г. Новокузнецк, ул. Транспортная, д. 2, к. 16, пом. 1</t>
-  </si>
-  <si>
     <t>42:30:0000000:640</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>Кемеровская область, г Новокузнецк, ул Транспортная, д 2, к 16, пом 2</t>
   </si>
   <si>
-    <t>Кемеровская область, г. Новокузнецк, ул. Транспортная, д. 2, к. 16, пом. 2</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -386,6 +380,12 @@
   </si>
   <si>
     <t>Кемеровская обл, р-н Новокузнецкий, сдт  'Шахтостроитель', участок № 129</t>
+  </si>
+  <si>
+    <t>Кемеровская область, г. Новокузнецк, ул. Транспортная, д. 2, к. 16А, пом. 1</t>
+  </si>
+  <si>
+    <t>Кемеровская область, г. Новокузнецк, ул. Транспортная, д. 2, к. 13, пом. 2</t>
   </si>
 </sst>
 </file>
@@ -838,16 +838,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="110.85546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="137" style="9" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1821,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>33</v>
@@ -1871,7 +1871,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>83</v>
@@ -1898,7 +1898,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>33</v>
@@ -1907,22 +1907,22 @@
         <v>39</v>
       </c>
       <c r="O12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="T12" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>43</v>
@@ -1963,22 +1963,22 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>36</v>
@@ -1990,7 +1990,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>33</v>
@@ -1999,13 +1999,10 @@
         <v>39</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>33</v>
@@ -2052,10 +2049,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>33</v>
@@ -2070,7 +2067,7 @@
         <v>34</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>36</v>
@@ -2082,7 +2079,7 @@
         <v>37</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>33</v>
@@ -2096,17 +2093,14 @@
       <c r="P14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>43</v>
@@ -2144,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>33</v>
@@ -2162,7 +2156,7 @@
         <v>34</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>36</v>
@@ -2188,9 +2182,6 @@
       <c r="P15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="R15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2198,7 +2189,7 @@
         <v>33</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>43</v>
@@ -2236,25 +2227,25 @@
         <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>36</v>
@@ -2266,7 +2257,7 @@
         <v>37</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>33</v>
@@ -2275,14 +2266,11 @@
         <v>39</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="R16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2290,7 +2278,7 @@
         <v>33</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>43</v>
@@ -2323,29 +2311,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="8" t="s">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q18" s="8" t="s">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q19" s="8" t="s">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="8" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q20" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q21" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
